--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,136 +40,127 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>friends</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -527,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +526,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>24</v>
@@ -596,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,13 +605,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
         <v>31</v>
@@ -638,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,37 +687,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>14</v>
       </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6948051948051948</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C6">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D6">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>47</v>
+        <v>430</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -796,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4166666666666667</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,245 +805,149 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="L7">
+        <v>41</v>
+      </c>
+      <c r="M7">
+        <v>41</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L8">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>24</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.8839285714285714</v>
+      </c>
+      <c r="L9">
+        <v>99</v>
+      </c>
+      <c r="M9">
+        <v>99</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L10">
+        <v>66</v>
+      </c>
+      <c r="M10">
+        <v>66</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K7">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L7">
-        <v>44</v>
-      </c>
-      <c r="M7">
-        <v>44</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>17</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L8">
-        <v>48</v>
-      </c>
-      <c r="M8">
-        <v>48</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3090128755364807</v>
-      </c>
-      <c r="C9">
-        <v>72</v>
-      </c>
-      <c r="D9">
-        <v>72</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>161</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L9">
-        <v>23</v>
-      </c>
-      <c r="M9">
-        <v>23</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>66</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <v>10</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.15</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>68</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11">
+        <v>0.796875</v>
+      </c>
+      <c r="L11">
+        <v>102</v>
+      </c>
+      <c r="M11">
+        <v>102</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L11">
-        <v>14</v>
-      </c>
-      <c r="M11">
-        <v>14</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K12">
         <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1064,21 +959,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1090,21 +985,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K14">
         <v>0.75</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1116,21 +1011,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7450980392156863</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1142,47 +1037,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L16">
+        <v>75</v>
+      </c>
+      <c r="M16">
+        <v>75</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>31</v>
-      </c>
-      <c r="K16">
-        <v>0.72</v>
-      </c>
-      <c r="L16">
-        <v>18</v>
-      </c>
-      <c r="M16">
-        <v>18</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7068965517241379</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1194,21 +1089,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6923076923076923</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1225,16 +1120,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6712328767123288</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1246,47 +1141,47 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="L20">
         <v>35</v>
       </c>
-      <c r="K20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L20">
+      <c r="M20">
+        <v>35</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>16</v>
-      </c>
-      <c r="M20">
-        <v>16</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6551724137931034</v>
+        <v>0.65625</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1298,21 +1193,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6410256410256411</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1324,21 +1219,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5909090909090909</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L23">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M23">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1350,21 +1245,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1376,21 +1271,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.55</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L25">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1402,21 +1297,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5271317829457365</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1428,21 +1323,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5263157894736842</v>
+        <v>0.4856396866840731</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1454,21 +1349,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5151515151515151</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1480,21 +1375,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.4441176470588235</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1506,21 +1401,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4930555555555556</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L30">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1532,21 +1427,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4929577464788732</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L31">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1558,21 +1453,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.44</v>
+        <v>0.4101694915254237</v>
       </c>
       <c r="L32">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="M32">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1584,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.4333333333333333</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1610,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.4285714285714285</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1636,21 +1531,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.3478260869565217</v>
+        <v>0.3347280334728033</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1662,21 +1557,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>60</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.2972972972972973</v>
+        <v>0.328125</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1688,7 +1583,33 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37">
+        <v>0.02460850111856823</v>
+      </c>
+      <c r="L37">
+        <v>22</v>
+      </c>
+      <c r="M37">
+        <v>22</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>872</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,40 +43,46 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
@@ -85,51 +91,48 @@
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
@@ -142,22 +145,22 @@
     <t>care</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
   </si>
   <si>
     <t>store</t>
@@ -518,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,7 +532,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9393939393939394</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -629,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -637,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6232876712328768</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C4">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6111111111111112</v>
+        <v>0.5821917808219178</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1666666666666667</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C6">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>430</v>
+        <v>153</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1587301587301587</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>159</v>
+        <v>426</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8913043478260869</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +840,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -855,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -863,13 +866,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8839285714285714</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -881,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -889,13 +892,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -907,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -915,13 +918,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -933,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -941,13 +944,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -959,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -967,13 +970,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7586206896551724</v>
+        <v>0.7734375</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -985,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -993,13 +996,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L14">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1011,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1019,13 +1022,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7142857142857143</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1037,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1045,13 +1048,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7075471698113207</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L16">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M16">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1063,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1071,13 +1074,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.704225352112676</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1089,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1097,13 +1100,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7037037037037037</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1115,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1149,13 +1152,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6862745098039216</v>
+        <v>0.6875</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1167,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1175,13 +1178,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.65625</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L21">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1193,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1201,13 +1204,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6349206349206349</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1219,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1227,13 +1230,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6063829787234043</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L23">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1245,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1253,13 +1256,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.58</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1279,13 +1282,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.574468085106383</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1297,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1305,13 +1308,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1323,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1331,13 +1334,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4856396866840731</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1349,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>197</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1357,13 +1360,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4444444444444444</v>
+        <v>0.4699738903394256</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1375,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1383,13 +1386,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4441176470588235</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L29">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1401,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>189</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1409,13 +1412,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4157303370786517</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1427,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>52</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1435,13 +1438,13 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4153846153846154</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1453,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1461,13 +1464,13 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4101694915254237</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L32">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M32">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1479,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1487,13 +1490,13 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.3698630136986301</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1505,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1513,13 +1516,13 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.3461538461538461</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1531,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1539,13 +1542,13 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.3347280334728033</v>
+        <v>0.359375</v>
       </c>
       <c r="L35">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1557,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>159</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1565,13 +1568,13 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>0.328125</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1583,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1591,13 +1594,13 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>0.02460850111856823</v>
+        <v>0.3472803347280335</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1609,7 +1612,33 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>872</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38">
+        <v>0.02684563758389262</v>
+      </c>
+      <c r="L38">
+        <v>24</v>
+      </c>
+      <c r="M38">
+        <v>24</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>870</v>
       </c>
     </row>
   </sheetData>
